--- a/ProyectoUPeUGUI/src/main/resources/ComprensionProblemas.xlsx
+++ b/ProyectoUPeUGUI/src/main/resources/ComprensionProblemas.xlsx
@@ -89,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -98,6 +98,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -380,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K4"/>
+  <dimension ref="A2:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,27 +430,27 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <f>B2^2</f>
+        <f t="shared" ref="B3:G3" si="0">B2^2</f>
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <f>C2^2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D3" s="2">
-        <f>D2^2</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E3" s="2">
-        <f>E2^2</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F3" s="3">
-        <f>F2^2</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="G3" s="2">
-        <f>G2^2</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -458,11 +461,11 @@
         <v>9604</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:K3" si="0">J2^2</f>
+        <f t="shared" ref="J3:K3" si="1">J2^2</f>
         <v>9801</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>
@@ -497,6 +500,28 @@
       </c>
       <c r="K4" s="1">
         <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoUPeUGUI/src/main/resources/ComprensionProblemas.xlsx
+++ b/ProyectoUPeUGUI/src/main/resources/ComprensionProblemas.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="7.1" sheetId="1" r:id="rId1"/>
+    <sheet name="7.5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Vector</t>
   </si>
@@ -33,6 +34,18 @@
   </si>
   <si>
     <t>Indice/poision, SubIndice</t>
+  </si>
+  <si>
+    <t>Vector=</t>
+  </si>
+  <si>
+    <t>indice/posicion/subindice</t>
+  </si>
+  <si>
+    <t>SumaElem=</t>
+  </si>
+  <si>
+    <t>MediaAritmetica=</t>
   </si>
 </sst>
 </file>
@@ -118,6 +131,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9038</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="19050"/>
+          <a:ext cx="3895238" cy="438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -527,4 +583,99 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="6.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <f>SUM(B6:I6)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <f>L5/COUNT(B6:I6)</f>
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ProyectoUPeUGUI/src/main/resources/ComprensionProblemas.xlsx
+++ b/ProyectoUPeUGUI/src/main/resources/ComprensionProblemas.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="7.1" sheetId="1" r:id="rId1"/>
     <sheet name="7.5" sheetId="2" r:id="rId2"/>
+    <sheet name="7.3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Vector</t>
   </si>
@@ -47,14 +48,24 @@
   <si>
     <t>MediaAritmetica=</t>
   </si>
+  <si>
+    <t>Indice</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -102,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -115,6 +126,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -169,6 +186,102 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>275804</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3371429" cy="380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="Definición: matriz unitaria (matriz identidad)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="29613" t="37956" r="36577" b="28954"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3438525" y="0"/>
+          <a:ext cx="2686050" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -589,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -678,4 +791,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>